--- a/fundData/沪深300被动对比.xlsx
+++ b/fundData/沪深300被动对比.xlsx
@@ -1,138 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\blog\fundData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD0D80D-4D26-41A3-9F3C-A74E6852CCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>成立日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今年来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近1周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近1月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近3月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近1年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近2年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近3年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近5年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟踪误差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>托管费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规模（亿）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沪深300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近6月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.0499893185216834"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,42 +71,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -451,106 +431,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="28.5" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="11" style="1"/>
+    <col width="11" customWidth="1" style="1" min="1" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="28.5" customHeight="1">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="28.5" customHeight="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>成立日期</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="28.5" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>今年来</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-3.84</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" customHeight="1">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>近1周</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="28.5" customHeight="1">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>近1月</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-3.34</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" customHeight="1">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>近3月</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" customHeight="1">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>近6月</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4.39</v>
+      </c>
+    </row>
+    <row r="9" ht="28.5" customHeight="1">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>近1年</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" customHeight="1">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>近2年</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="28.5" customHeight="1">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>近3年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-5.71</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" customHeight="1">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>近5年</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="28.5" customFormat="1" customHeight="1" s="5">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>跟踪误差</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="28.5" customFormat="1" customHeight="1" s="6">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>费率</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>管理费</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="28.5" customFormat="1" customHeight="1" s="6">
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>托管费</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="28.5" customFormat="1" customHeight="1" s="7">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>规模（亿）</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/fundData/沪深300被动对比.xlsx
+++ b/fundData/沪深300被动对比.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -450,7 +450,112 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>110020</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>000051</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>160706</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>050002</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>008390</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>270010</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>000961</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>202015</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>160615</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>000613</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>481009</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>020011</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>519300</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>006600</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>460300</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>000656</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>007538</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>660008</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>501043</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>165309</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>160807</t>
         </is>
       </c>
     </row>
@@ -460,6 +565,111 @@
           <t>沪深300</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达沪深300ETF联接A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>华夏沪深300ETF联接A</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>嘉实沪深300ETF联接A</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>博时沪深300指数A</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>国联安沪深300ETF联接A</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>广发沪深300ETF联接A</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>天弘沪深300ETF联接A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>南方沪深300ETF联接A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>鹏华沪深300ETF联接(LOF)A</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>国寿安保沪深300ETF联接A</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>工银沪深300指数A</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>国泰沪深300指数A</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>大成沪深300指数A</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>人保沪深300A</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞沪深300ETF联接A</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>前海开源沪深300指数A</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>永赢沪深300ETF发起联接A</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>农银沪深300指数A</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>汇添富沪深300指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>建信沪深300指数(LOF)</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>长盛沪深300指数(LOF)A</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="28.5" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
@@ -467,6 +677,111 @@
           <t>成立日期</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2009-08-26</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2009-07-10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2005-08-29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2003-08-26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2019-12-25</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2008-12-30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2015-01-20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2009-03-25</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2009-04-03</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2014-06-05</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2009-03-05</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2007-11-11</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2006-04-06</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2019-02-28</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>2012-05-29</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2014-06-17</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2019-07-09</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2011-04-12</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>2017-09-06</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>2009-11-05</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>2010-08-04</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="28.5" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
@@ -475,7 +790,112 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3.84</v>
+        <v>-3.76</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-3.27%</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-3.25%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-3.28%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-1.66%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-3.32%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-3.42%</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-3.33%</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-3.49%</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>-3.51%</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-3.22%</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>-3.22%</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>-3.1%</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>-3.25%</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>-3.16%</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-3.53%</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>-3.11%</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>-3.41%</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>-3.42%</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-3.54%</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>-3.07%</t>
+        </is>
       </c>
     </row>
     <row r="5" ht="28.5" customHeight="1">
@@ -484,6 +904,111 @@
           <t>近1周</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.43%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.43%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.15%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.45%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.43%</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.43%</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.43%</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.43%</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.43%</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.46%</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.43%</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.43%</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0.49%</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="28.5" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
@@ -492,7 +1017,112 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.34</v>
+        <v>-3.7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-3.41%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-3.4%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-3.4%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-3.15%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-3.49%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-3.46%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-3.4%</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>-3.55%</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>-3.43%</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>-3.36%</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>-3.4%</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>-3.33%</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>-3.38%</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>-3.36%</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>-3.67%</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>-3.33%</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>-3.34%</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>-3.5%</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>-3.47%</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>-3.5%</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>-3.25%</t>
+        </is>
       </c>
     </row>
     <row r="7" ht="28.5" customHeight="1">
@@ -502,7 +1132,112 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.34</v>
+        <v>-1.2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-1.03%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-1.02%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-1.03%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-0.37%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-1.08%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-1.15%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-1.08%</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-1.25%</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>-1.29%</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-1.03%</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>-1.03%</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>-0.93%</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>-1.07%</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>-0.96%</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>-1.28%</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>-0.92%</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>-0.98%</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>-1.01%</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>-1.15%</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>-1.28%</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>-0.75%</t>
+        </is>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -512,7 +1247,112 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.39</v>
+        <v>-4.28</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-3.56%</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-3.62%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-3.66%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-1.73%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-3.67%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-3.89%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-3.64%</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-3.8%</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>-3.87%</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>-3.47%</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>-3.45%</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>-3.24%</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>-3.63%</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>-3.24%</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-3.88%</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>-3.4%</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>-3.58%</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>-3.81%</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>-3.83%</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>-4.16%</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>-2.59%</t>
+        </is>
       </c>
     </row>
     <row r="9" ht="28.5" customHeight="1">
@@ -522,7 +1362,112 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.17</v>
+        <v>7.27</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>9.68%</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.11%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>9.75%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.13%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>9.97%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>9.51%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>10.29%</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>9.57%</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>8.72%</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>10.38%</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>10.54%</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>8.53%</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>10.8%</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>8.46%</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>11.2%</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>9.24%</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>9.56%</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>10.26%</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>8.72%</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>11.77%</t>
+        </is>
       </c>
     </row>
     <row r="10" ht="28.5" customHeight="1">
@@ -531,6 +1476,111 @@
           <t>近2年</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.56%</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.73%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.15%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.96%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-0.26%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.21%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.92%</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>-1.39%</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1.53%</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>-0.87%</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-0.84%</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>3.12%</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>1.18%</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>-0.21%</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.36%</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>3.14%</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="28.5" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
@@ -539,7 +1589,112 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5.71</v>
+        <v>-0.73</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>6.32%</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.28%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5.32%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.46%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.57%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>5.28%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>6.71%</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>6.23%</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>4.06%</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>5.57%</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>6.85%</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>8.98%</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>5.21%</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>4.58%</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>10.55%</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>7.68%</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>5.36%</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>5.7%</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>7.33%</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>11.03%</t>
+        </is>
       </c>
     </row>
     <row r="12" ht="28.5" customHeight="1">
@@ -548,6 +1703,114 @@
           <t>近5年</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>12.93%</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.36%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>8.25%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>13.41%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>15.41%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>10.33%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>13.78%</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>15.99%</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>20.12%</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>11.08%</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>11.44%</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>21.14%</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>12.38%</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>22.38%</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>8.7%</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>37.74%</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>25.5%</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>10.81%</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>20.99%</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>26.25%</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>35.46%</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="28.5" customFormat="1" customHeight="1" s="5">
       <c r="A13" s="5" t="inlineStr">
@@ -555,6 +1818,111 @@
           <t>跟踪误差</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1.79%</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.10%</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.20%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.06%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.18%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1.39%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1.69%</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1.20%</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1.90%</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1.42%</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1.40%</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2.09%</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>1.28%</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>2.25%</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>1.30%</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>1.70%</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>1.23%</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>1.95%</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>1.59%</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>1.53%</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="28.5" customFormat="1" customHeight="1" s="6">
       <c r="A14" s="6" t="inlineStr">
@@ -567,6 +1935,111 @@
           <t>管理费</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.15%</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.15%</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.15%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.98%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.20%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.50%</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.50%</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0.50%</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0.15%</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0.50%</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0.50%</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0.50%</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.45%</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0.15%</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0.50%</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0.15%</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>0.60%</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>0.50%</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="28.5" customFormat="1" customHeight="1" s="6">
       <c r="B15" s="6" t="inlineStr">
@@ -574,11 +2047,221 @@
           <t>托管费</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.05%</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05%</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.05%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.20%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.10%</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.10%</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.10%</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0.10%</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.05%</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0.10%</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0.10%</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0.10%</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0.15%</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.10%</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0.05%</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0.10%</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0.05%</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>0.15%</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>0.10%</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>0.15%</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>0.15%</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="28.5" customFormat="1" customHeight="1" s="7">
       <c r="A16" s="7" t="inlineStr">
         <is>
           <t>规模（亿）</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>131.25</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>103.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>48.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>44.20</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>30.77</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>12.13</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>14.31</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>3.29</t>
         </is>
       </c>
     </row>

--- a/fundData/沪深300被动对比.xlsx
+++ b/fundData/沪深300被动对比.xlsx
@@ -484,7 +484,7 @@
     <row r="1" ht="14" customHeight="1" s="6">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="C1" s="7" t="inlineStr">
@@ -825,112 +825,112 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>-4.06%</t>
         </is>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
+          <t>-3.56%</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>-3.53%</t>
+        </is>
+      </c>
+      <c r="E4" s="7" t="inlineStr">
+        <is>
+          <t>-3.57%</t>
+        </is>
+      </c>
+      <c r="F4" s="7" t="inlineStr">
+        <is>
+          <t>-2.08%</t>
+        </is>
+      </c>
+      <c r="G4" s="7" t="inlineStr">
+        <is>
+          <t>-3.62%</t>
+        </is>
+      </c>
+      <c r="H4" s="7" t="inlineStr">
+        <is>
+          <t>-3.71%</t>
+        </is>
+      </c>
+      <c r="I4" s="7" t="inlineStr">
+        <is>
+          <t>-3.62%</t>
+        </is>
+      </c>
+      <c r="J4" s="7" t="inlineStr">
+        <is>
+          <t>-3.78%</t>
+        </is>
+      </c>
+      <c r="K4" s="7" t="inlineStr">
+        <is>
+          <t>-3.79%</t>
+        </is>
+      </c>
+      <c r="L4" s="7" t="inlineStr">
+        <is>
+          <t>-3.51%</t>
+        </is>
+      </c>
+      <c r="M4" s="7" t="inlineStr">
+        <is>
+          <t>-3.51%</t>
+        </is>
+      </c>
+      <c r="N4" s="7" t="inlineStr">
+        <is>
           <t>-3.4%</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
-        <is>
-          <t>-3.38%</t>
-        </is>
-      </c>
-      <c r="E4" s="7" t="inlineStr">
-        <is>
-          <t>-3.41%</t>
-        </is>
-      </c>
-      <c r="F4" s="7" t="inlineStr">
-        <is>
-          <t>-1.88%</t>
-        </is>
-      </c>
-      <c r="G4" s="7" t="inlineStr">
-        <is>
-          <t>-3.46%</t>
-        </is>
-      </c>
-      <c r="H4" s="7" t="inlineStr">
+      <c r="O4" s="7" t="inlineStr">
         <is>
           <t>-3.55%</t>
         </is>
       </c>
-      <c r="I4" s="7" t="inlineStr">
-        <is>
-          <t>-3.46%</t>
-        </is>
-      </c>
-      <c r="J4" s="7" t="inlineStr">
-        <is>
-          <t>-3.62%</t>
-        </is>
-      </c>
-      <c r="K4" s="7" t="inlineStr">
-        <is>
-          <t>-3.64%</t>
-        </is>
-      </c>
-      <c r="L4" s="7" t="inlineStr">
-        <is>
-          <t>-3.36%</t>
-        </is>
-      </c>
-      <c r="M4" s="7" t="inlineStr">
-        <is>
-          <t>-3.35%</t>
-        </is>
-      </c>
-      <c r="N4" s="7" t="inlineStr">
-        <is>
-          <t>-3.24%</t>
-        </is>
-      </c>
-      <c r="O4" s="7" t="inlineStr">
-        <is>
-          <t>-3.38%</t>
-        </is>
-      </c>
       <c r="P4" s="7" t="inlineStr">
         <is>
-          <t>-3.29%</t>
+          <t>-3.44%</t>
         </is>
       </c>
       <c r="Q4" s="7" t="inlineStr">
         <is>
-          <t>-3.66%</t>
+          <t>-3.82%</t>
         </is>
       </c>
       <c r="R4" s="7" t="inlineStr">
         <is>
-          <t>-3.28%</t>
+          <t>-3.45%</t>
         </is>
       </c>
       <c r="S4" s="7" t="inlineStr">
         <is>
-          <t>-3.32%</t>
+          <t>-3.49%</t>
         </is>
       </c>
       <c r="T4" s="7" t="inlineStr">
         <is>
-          <t>-3.55%</t>
+          <t>-3.71%</t>
         </is>
       </c>
       <c r="U4" s="7" t="inlineStr">
         <is>
-          <t>-3.56%</t>
+          <t>-3.71%</t>
         </is>
       </c>
       <c r="V4" s="7" t="inlineStr">
         <is>
-          <t>-3.69%</t>
+          <t>-3.86%</t>
         </is>
       </c>
       <c r="W4" s="7" t="inlineStr">
         <is>
-          <t>-3.24%</t>
+          <t>-3.37%</t>
         </is>
       </c>
     </row>
@@ -942,107 +942,107 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>-0.02%</t>
+          <t>-0.21%</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>-0.01%</t>
+          <t>-0.21%</t>
         </is>
       </c>
       <c r="E5" s="7" t="inlineStr">
         <is>
-          <t>-0.01%</t>
+          <t>-0.21%</t>
         </is>
       </c>
       <c r="F5" s="7" t="inlineStr">
         <is>
-          <t>0.41%</t>
+          <t>0.02%</t>
         </is>
       </c>
       <c r="G5" s="7" t="inlineStr">
         <is>
-          <t>-0.02%</t>
+          <t>-0.23%</t>
         </is>
       </c>
       <c r="H5" s="7" t="inlineStr">
         <is>
-          <t>-0.01%</t>
+          <t>-0.22%</t>
         </is>
       </c>
       <c r="I5" s="7" t="inlineStr">
         <is>
-          <t>-0.02%</t>
+          <t>-0.22%</t>
         </is>
       </c>
       <c r="J5" s="7" t="inlineStr">
         <is>
-          <t>-0.02%</t>
+          <t>-0.22%</t>
         </is>
       </c>
       <c r="K5" s="7" t="inlineStr">
         <is>
-          <t>-0.01%</t>
+          <t>-0.21%</t>
         </is>
       </c>
       <c r="L5" s="7" t="inlineStr">
         <is>
-          <t>-0.02%</t>
+          <t>-0.21%</t>
         </is>
       </c>
       <c r="M5" s="7" t="inlineStr">
         <is>
-          <t>-0.02%</t>
+          <t>-0.22%</t>
         </is>
       </c>
       <c r="N5" s="7" t="inlineStr">
         <is>
-          <t>-0.01%</t>
+          <t>-0.22%</t>
         </is>
       </c>
       <c r="O5" s="7" t="inlineStr">
         <is>
-          <t>-0.03%</t>
+          <t>-0.23%</t>
         </is>
       </c>
       <c r="P5" s="7" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>-0.18%</t>
         </is>
       </c>
       <c r="Q5" s="7" t="inlineStr">
         <is>
-          <t>-0.02%</t>
+          <t>-0.21%</t>
         </is>
       </c>
       <c r="R5" s="7" t="inlineStr">
         <is>
-          <t>-0.06%</t>
+          <t>-0.28%</t>
         </is>
       </c>
       <c r="S5" s="7" t="inlineStr">
         <is>
-          <t>-0.01%</t>
+          <t>-0.21%</t>
         </is>
       </c>
       <c r="T5" s="7" t="inlineStr">
         <is>
-          <t>-0.05%</t>
+          <t>-0.23%</t>
         </is>
       </c>
       <c r="U5" s="7" t="inlineStr">
         <is>
-          <t>-0.03%</t>
+          <t>-0.23%</t>
         </is>
       </c>
       <c r="V5" s="7" t="inlineStr">
         <is>
-          <t>-0.07%</t>
+          <t>-0.25%</t>
         </is>
       </c>
       <c r="W5" s="7" t="inlineStr">
         <is>
-          <t>-0.03%</t>
+          <t>-0.21%</t>
         </is>
       </c>
     </row>
@@ -1054,112 +1054,112 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-3.41%</t>
+          <t>-3.58%</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>-3.15%</t>
+          <t>-3.31%</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>-3.13%</t>
+          <t>-3.29%</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr">
         <is>
-          <t>-3.12%</t>
+          <t>-3.28%</t>
         </is>
       </c>
       <c r="F6" s="7" t="inlineStr">
         <is>
-          <t>-3.19%</t>
+          <t>-3.39%</t>
         </is>
       </c>
       <c r="G6" s="7" t="inlineStr">
         <is>
-          <t>-3.22%</t>
+          <t>-3.39%</t>
         </is>
       </c>
       <c r="H6" s="7" t="inlineStr">
         <is>
-          <t>-3.19%</t>
+          <t>-3.36%</t>
         </is>
       </c>
       <c r="I6" s="7" t="inlineStr">
         <is>
-          <t>-3.14%</t>
+          <t>-3.3%</t>
         </is>
       </c>
       <c r="J6" s="7" t="inlineStr">
         <is>
-          <t>-3.27%</t>
+          <t>-3.43%</t>
         </is>
       </c>
       <c r="K6" s="7" t="inlineStr">
         <is>
-          <t>-3.16%</t>
+          <t>-3.32%</t>
         </is>
       </c>
       <c r="L6" s="7" t="inlineStr">
         <is>
-          <t>-3.1%</t>
+          <t>-3.25%</t>
         </is>
       </c>
       <c r="M6" s="7" t="inlineStr">
         <is>
-          <t>-3.13%</t>
+          <t>-3.28%</t>
         </is>
       </c>
       <c r="N6" s="7" t="inlineStr">
         <is>
-          <t>-3.08%</t>
+          <t>-3.24%</t>
         </is>
       </c>
       <c r="O6" s="7" t="inlineStr">
         <is>
-          <t>-3.13%</t>
+          <t>-3.3%</t>
         </is>
       </c>
       <c r="P6" s="7" t="inlineStr">
         <is>
-          <t>-3.08%</t>
+          <t>-3.23%</t>
         </is>
       </c>
       <c r="Q6" s="7" t="inlineStr">
         <is>
-          <t>-3.4%</t>
+          <t>-3.56%</t>
         </is>
       </c>
       <c r="R6" s="7" t="inlineStr">
         <is>
-          <t>-3.12%</t>
+          <t>-3.29%</t>
         </is>
       </c>
       <c r="S6" s="7" t="inlineStr">
         <is>
-          <t>-3.09%</t>
+          <t>-3.25%</t>
         </is>
       </c>
       <c r="T6" s="7" t="inlineStr">
         <is>
-          <t>-3.23%</t>
+          <t>-3.39%</t>
         </is>
       </c>
       <c r="U6" s="7" t="inlineStr">
         <is>
-          <t>-3.21%</t>
+          <t>-3.36%</t>
         </is>
       </c>
       <c r="V6" s="7" t="inlineStr">
         <is>
-          <t>-3.25%</t>
+          <t>-3.42%</t>
         </is>
       </c>
       <c r="W6" s="7" t="inlineStr">
         <is>
-          <t>-3.16%</t>
+          <t>-3.29%</t>
         </is>
       </c>
     </row>
@@ -1171,112 +1171,112 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>-0.94%</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>-0.92%</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>-0.94%</t>
+        </is>
+      </c>
+      <c r="F7" s="7" t="inlineStr">
+        <is>
+          <t>-0.37%</t>
+        </is>
+      </c>
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t>-0.99%</t>
+        </is>
+      </c>
+      <c r="H7" s="7" t="inlineStr">
+        <is>
+          <t>-1.07%</t>
+        </is>
+      </c>
+      <c r="I7" s="7" t="inlineStr">
+        <is>
+          <t>-1.0%</t>
+        </is>
+      </c>
+      <c r="J7" s="7" t="inlineStr">
+        <is>
+          <t>-1.15%</t>
+        </is>
+      </c>
+      <c r="K7" s="7" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
+      <c r="L7" s="7" t="inlineStr">
+        <is>
+          <t>-0.95%</t>
+        </is>
+      </c>
+      <c r="M7" s="7" t="inlineStr">
+        <is>
+          <t>-0.95%</t>
+        </is>
+      </c>
+      <c r="N7" s="7" t="inlineStr">
+        <is>
+          <t>-0.88%</t>
+        </is>
+      </c>
+      <c r="O7" s="7" t="inlineStr">
+        <is>
+          <t>-1.0%</t>
+        </is>
+      </c>
+      <c r="P7" s="7" t="inlineStr">
+        <is>
+          <t>-0.91%</t>
+        </is>
+      </c>
+      <c r="Q7" s="7" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
+      <c r="R7" s="7" t="inlineStr">
+        <is>
+          <t>-0.94%</t>
+        </is>
+      </c>
+      <c r="S7" s="7" t="inlineStr">
+        <is>
           <t>-0.93%</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
-        <is>
-          <t>-0.78%</t>
-        </is>
-      </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>-0.76%</t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t>-0.78%</t>
-        </is>
-      </c>
-      <c r="F7" s="7" t="inlineStr">
-        <is>
-          <t>-0.17%</t>
-        </is>
-      </c>
-      <c r="G7" s="7" t="inlineStr">
-        <is>
-          <t>-0.82%</t>
-        </is>
-      </c>
-      <c r="H7" s="7" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="I7" s="7" t="inlineStr">
-        <is>
-          <t>-0.83%</t>
-        </is>
-      </c>
-      <c r="J7" s="7" t="inlineStr">
-        <is>
-          <t>-0.99%</t>
-        </is>
-      </c>
-      <c r="K7" s="7" t="inlineStr">
-        <is>
-          <t>-1.05%</t>
-        </is>
-      </c>
-      <c r="L7" s="7" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="M7" s="7" t="inlineStr">
-        <is>
-          <t>-0.79%</t>
-        </is>
-      </c>
-      <c r="N7" s="7" t="inlineStr">
-        <is>
-          <t>-0.71%</t>
-        </is>
-      </c>
-      <c r="O7" s="7" t="inlineStr">
-        <is>
-          <t>-0.83%</t>
-        </is>
-      </c>
-      <c r="P7" s="7" t="inlineStr">
-        <is>
-          <t>-0.76%</t>
-        </is>
-      </c>
-      <c r="Q7" s="7" t="inlineStr">
-        <is>
-          <t>-1.04%</t>
-        </is>
-      </c>
-      <c r="R7" s="7" t="inlineStr">
-        <is>
-          <t>-0.77%</t>
-        </is>
-      </c>
-      <c r="S7" s="7" t="inlineStr">
+      <c r="T7" s="7" t="inlineStr">
+        <is>
+          <t>-1.01%</t>
+        </is>
+      </c>
+      <c r="U7" s="7" t="inlineStr">
+        <is>
+          <t>-1.07%</t>
+        </is>
+      </c>
+      <c r="V7" s="7" t="inlineStr">
+        <is>
+          <t>-1.19%</t>
+        </is>
+      </c>
+      <c r="W7" s="7" t="inlineStr">
         <is>
           <t>-0.75%</t>
-        </is>
-      </c>
-      <c r="T7" s="7" t="inlineStr">
-        <is>
-          <t>-0.84%</t>
-        </is>
-      </c>
-      <c r="U7" s="7" t="inlineStr">
-        <is>
-          <t>-0.91%</t>
-        </is>
-      </c>
-      <c r="V7" s="7" t="inlineStr">
-        <is>
-          <t>-1.03%</t>
-        </is>
-      </c>
-      <c r="W7" s="7" t="inlineStr">
-        <is>
-          <t>-0.61%</t>
         </is>
       </c>
     </row>
@@ -1288,112 +1288,112 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-4.6%</t>
+          <t>-3.81%</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>-3.87%</t>
+          <t>-3.11%</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>-3.92%</t>
+          <t>-3.17%</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>-3.94%</t>
+          <t>-3.19%</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr">
         <is>
-          <t>-2.15%</t>
+          <t>-1.43%</t>
         </is>
       </c>
       <c r="G8" s="7" t="inlineStr">
         <is>
-          <t>-3.99%</t>
+          <t>-3.25%</t>
         </is>
       </c>
       <c r="H8" s="7" t="inlineStr">
         <is>
-          <t>-4.18%</t>
+          <t>-3.44%</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr">
         <is>
-          <t>-3.95%</t>
+          <t>-3.2%</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr">
         <is>
-          <t>-4.1%</t>
+          <t>-3.33%</t>
         </is>
       </c>
       <c r="K8" s="7" t="inlineStr">
         <is>
-          <t>-4.15%</t>
+          <t>-3.42%</t>
         </is>
       </c>
       <c r="L8" s="7" t="inlineStr">
         <is>
-          <t>-3.78%</t>
+          <t>-3.02%</t>
         </is>
       </c>
       <c r="M8" s="7" t="inlineStr">
         <is>
-          <t>-3.75%</t>
+          <t>-3.0%</t>
         </is>
       </c>
       <c r="N8" s="7" t="inlineStr">
         <is>
-          <t>-3.56%</t>
+          <t>-2.84%</t>
         </is>
       </c>
       <c r="O8" s="7" t="inlineStr">
         <is>
-          <t>-3.93%</t>
+          <t>-3.22%</t>
         </is>
       </c>
       <c r="P8" s="7" t="inlineStr">
         <is>
-          <t>-3.55%</t>
+          <t>-2.84%</t>
         </is>
       </c>
       <c r="Q8" s="7" t="inlineStr">
         <is>
-          <t>-4.19%</t>
+          <t>-3.44%</t>
         </is>
       </c>
       <c r="R8" s="7" t="inlineStr">
         <is>
-          <t>-3.76%</t>
+          <t>-3.1%</t>
         </is>
       </c>
       <c r="S8" s="7" t="inlineStr">
         <is>
-          <t>-3.87%</t>
+          <t>-3.17%</t>
         </is>
       </c>
       <c r="T8" s="7" t="inlineStr">
         <is>
-          <t>-4.12%</t>
+          <t>-3.37%</t>
         </is>
       </c>
       <c r="U8" s="7" t="inlineStr">
         <is>
-          <t>-4.14%</t>
+          <t>-3.39%</t>
         </is>
       </c>
       <c r="V8" s="7" t="inlineStr">
         <is>
-          <t>-4.48%</t>
+          <t>-3.74%</t>
         </is>
       </c>
       <c r="W8" s="7" t="inlineStr">
         <is>
-          <t>-2.97%</t>
+          <t>-2.32%</t>
         </is>
       </c>
     </row>
@@ -1405,112 +1405,112 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5.51%</t>
+          <t>4.17%</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>7.95%</t>
+          <t>6.66%</t>
         </is>
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>8.39%</t>
+          <t>7.08%</t>
         </is>
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>8.03%</t>
+          <t>6.73%</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr">
         <is>
-          <t>7.35%</t>
+          <t>6.11%</t>
         </is>
       </c>
       <c r="G9" s="10" t="inlineStr">
         <is>
-          <t>8.26%</t>
+          <t>6.95%</t>
         </is>
       </c>
       <c r="H9" s="7" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>6.49%</t>
         </is>
       </c>
       <c r="I9" s="10" t="inlineStr">
         <is>
-          <t>8.57%</t>
+          <t>7.26%</t>
         </is>
       </c>
       <c r="J9" s="7" t="inlineStr">
         <is>
-          <t>7.85%</t>
+          <t>6.55%</t>
         </is>
       </c>
       <c r="K9" s="7" t="inlineStr">
         <is>
-          <t>7.08%</t>
+          <t>5.84%</t>
         </is>
       </c>
       <c r="L9" s="10" t="inlineStr">
         <is>
-          <t>8.49%</t>
+          <t>7.22%</t>
         </is>
       </c>
       <c r="M9" s="10" t="inlineStr">
         <is>
-          <t>8.68%</t>
+          <t>7.37%</t>
         </is>
       </c>
       <c r="N9" s="10" t="inlineStr">
         <is>
-          <t>8.78%</t>
+          <t>7.47%</t>
         </is>
       </c>
       <c r="O9" s="7" t="inlineStr">
         <is>
-          <t>6.84%</t>
+          <t>5.53%</t>
         </is>
       </c>
       <c r="P9" s="10" t="inlineStr">
         <is>
-          <t>9.12%</t>
+          <t>7.84%</t>
         </is>
       </c>
       <c r="Q9" s="7" t="inlineStr">
         <is>
-          <t>6.75%</t>
+          <t>5.45%</t>
         </is>
       </c>
       <c r="R9" s="10" t="inlineStr">
         <is>
-          <t>9.43%</t>
+          <t>8.1%</t>
         </is>
       </c>
       <c r="S9" s="7" t="inlineStr">
         <is>
-          <t>7.53%</t>
+          <t>6.22%</t>
         </is>
       </c>
       <c r="T9" s="7" t="inlineStr">
         <is>
-          <t>7.84%</t>
+          <t>6.53%</t>
         </is>
       </c>
       <c r="U9" s="10" t="inlineStr">
         <is>
-          <t>8.51%</t>
+          <t>7.2%</t>
         </is>
       </c>
       <c r="V9" s="7" t="inlineStr">
         <is>
-          <t>6.97%</t>
+          <t>5.65%</t>
         </is>
       </c>
       <c r="W9" s="10" t="inlineStr">
         <is>
-          <t>9.95%</t>
+          <t>8.61%</t>
         </is>
       </c>
     </row>
@@ -1522,107 +1522,107 @@
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>-1.17%</t>
+          <t>-1.32%</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
         <is>
-          <t>-1.0%</t>
+          <t>-1.16%</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr">
         <is>
-          <t>-1.57%</t>
+          <t>-1.73%</t>
         </is>
       </c>
       <c r="F10" s="10" t="inlineStr">
         <is>
-          <t>0.97%</t>
+          <t>0.76%</t>
         </is>
       </c>
       <c r="G10" s="7" t="inlineStr">
         <is>
-          <t>-1.95%</t>
+          <t>-2.12%</t>
         </is>
       </c>
       <c r="H10" s="7" t="inlineStr">
         <is>
-          <t>-1.51%</t>
+          <t>-1.68%</t>
         </is>
       </c>
       <c r="I10" s="10" t="inlineStr">
         <is>
-          <t>-0.81%</t>
+          <t>-0.98%</t>
         </is>
       </c>
       <c r="J10" s="7" t="inlineStr">
         <is>
-          <t>-1.36%</t>
+          <t>-1.52%</t>
         </is>
       </c>
       <c r="K10" s="7" t="inlineStr">
         <is>
-          <t>-3.06%</t>
+          <t>-3.22%</t>
         </is>
       </c>
       <c r="L10" s="7" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>-1.35%</t>
         </is>
       </c>
       <c r="M10" s="10" t="inlineStr">
         <is>
-          <t>-0.55%</t>
+          <t>-0.71%</t>
         </is>
       </c>
       <c r="N10" s="10" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-0.37%</t>
         </is>
       </c>
       <c r="O10" s="7" t="inlineStr">
         <is>
-          <t>-2.53%</t>
+          <t>-2.7%</t>
         </is>
       </c>
       <c r="P10" s="10" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.04%</t>
         </is>
       </c>
       <c r="Q10" s="7" t="inlineStr">
         <is>
-          <t>-2.54%</t>
+          <t>-2.7%</t>
         </is>
       </c>
       <c r="R10" s="10" t="inlineStr">
         <is>
-          <t>1.29%</t>
+          <t>1.11%</t>
         </is>
       </c>
       <c r="S10" s="10" t="inlineStr">
         <is>
-          <t>-0.53%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="T10" s="7" t="inlineStr">
         <is>
-          <t>-1.92%</t>
+          <t>-2.08%</t>
         </is>
       </c>
       <c r="U10" s="7" t="inlineStr">
         <is>
-          <t>-1.37%</t>
+          <t>-1.54%</t>
         </is>
       </c>
       <c r="V10" s="7" t="inlineStr">
         <is>
-          <t>-1.23%</t>
+          <t>-1.4%</t>
         </is>
       </c>
       <c r="W10" s="10" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.17%</t>
         </is>
       </c>
     </row>
@@ -1634,112 +1634,112 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-3.56%</t>
+          <t>-6.0%</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
-          <t>3.74%</t>
+          <t>1.18%</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr">
         <is>
-          <t>3.45%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr">
         <is>
-          <t>2.49%</t>
+          <t>-0.01%</t>
         </is>
       </c>
       <c r="F11" s="10" t="inlineStr">
         <is>
-          <t>5.32%</t>
+          <t>2.59%</t>
         </is>
       </c>
       <c r="G11" s="7" t="inlineStr">
         <is>
-          <t>1.82%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr">
         <is>
-          <t>2.55%</t>
+          <t>0.03%</t>
         </is>
       </c>
       <c r="I11" s="10" t="inlineStr">
         <is>
-          <t>3.95%</t>
+          <t>1.37%</t>
         </is>
       </c>
       <c r="J11" s="7" t="inlineStr">
         <is>
-          <t>3.44%</t>
+          <t>0.89%</t>
         </is>
       </c>
       <c r="K11" s="7" t="inlineStr">
         <is>
-          <t>1.47%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="L11" s="7" t="inlineStr">
         <is>
-          <t>2.75%</t>
+          <t>0.27%</t>
         </is>
       </c>
       <c r="M11" s="10" t="inlineStr">
         <is>
-          <t>4.05%</t>
+          <t>1.59%</t>
         </is>
       </c>
       <c r="N11" s="10" t="inlineStr">
         <is>
-          <t>6.14%</t>
+          <t>3.56%</t>
         </is>
       </c>
       <c r="O11" s="7" t="inlineStr">
         <is>
-          <t>2.54%</t>
+          <t>0.05%</t>
         </is>
       </c>
       <c r="P11" s="7" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.73%</t>
         </is>
       </c>
       <c r="Q11" s="7" t="inlineStr">
         <is>
-          <t>1.55%</t>
+          <t>-0.87%</t>
         </is>
       </c>
       <c r="R11" s="10" t="inlineStr">
         <is>
-          <t>7.65%</t>
+          <t>4.99%</t>
         </is>
       </c>
       <c r="S11" s="10" t="inlineStr">
         <is>
-          <t>4.79%</t>
+          <t>2.21%</t>
         </is>
       </c>
       <c r="T11" s="7" t="inlineStr">
         <is>
-          <t>2.54%</t>
+          <t>0.04%</t>
         </is>
       </c>
       <c r="U11" s="7" t="inlineStr">
         <is>
-          <t>2.94%</t>
+          <t>0.43%</t>
         </is>
       </c>
       <c r="V11" s="10" t="inlineStr">
         <is>
-          <t>4.49%</t>
+          <t>1.99%</t>
         </is>
       </c>
       <c r="W11" s="10" t="inlineStr">
         <is>
-          <t>7.98%</t>
+          <t>5.27%</t>
         </is>
       </c>
     </row>
@@ -1751,112 +1751,112 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-1.75%</t>
+          <t>-2.38%</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>11.31%</t>
+          <t>10.63%</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
         <is>
-          <t>8.8%</t>
+          <t>8.14%</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr">
         <is>
-          <t>6.72%</t>
+          <t>6.08%</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr">
         <is>
-          <t>11.61%</t>
+          <t>10.83%</t>
         </is>
       </c>
       <c r="G12" s="7" t="inlineStr">
         <is>
-          <t>13.83%</t>
+          <t>13.16%</t>
         </is>
       </c>
       <c r="H12" s="7" t="inlineStr">
         <is>
-          <t>8.75%</t>
+          <t>8.09%</t>
         </is>
       </c>
       <c r="I12" s="7" t="inlineStr">
         <is>
-          <t>12.17%</t>
+          <t>11.49%</t>
         </is>
       </c>
       <c r="J12" s="7" t="inlineStr">
         <is>
-          <t>14.32%</t>
+          <t>13.62%</t>
         </is>
       </c>
       <c r="K12" s="10" t="inlineStr">
         <is>
-          <t>18.39%</t>
+          <t>17.57%</t>
         </is>
       </c>
       <c r="L12" s="7" t="inlineStr">
         <is>
-          <t>9.53%</t>
+          <t>8.88%</t>
         </is>
       </c>
       <c r="M12" s="7" t="inlineStr">
         <is>
-          <t>9.87%</t>
+          <t>9.21%</t>
         </is>
       </c>
       <c r="N12" s="10" t="inlineStr">
         <is>
-          <t>19.42%</t>
+          <t>18.66%</t>
         </is>
       </c>
       <c r="O12" s="7" t="inlineStr">
         <is>
-          <t>10.88%</t>
+          <t>10.22%</t>
         </is>
       </c>
       <c r="P12" s="10" t="inlineStr">
         <is>
-          <t>20.68%</t>
+          <t>19.82%</t>
         </is>
       </c>
       <c r="Q12" s="7" t="inlineStr">
         <is>
-          <t>7.15%</t>
+          <t>6.51%</t>
         </is>
       </c>
       <c r="R12" s="10" t="inlineStr">
         <is>
-          <t>35.76%</t>
+          <t>34.77%</t>
         </is>
       </c>
       <c r="S12" s="10" t="inlineStr">
         <is>
-          <t>23.66%</t>
+          <t>22.84%</t>
         </is>
       </c>
       <c r="T12" s="7" t="inlineStr">
         <is>
-          <t>9.24%</t>
+          <t>8.57%</t>
         </is>
       </c>
       <c r="U12" s="10" t="inlineStr">
         <is>
-          <t>19.25%</t>
+          <t>18.52%</t>
         </is>
       </c>
       <c r="V12" s="10" t="inlineStr">
         <is>
-          <t>24.46%</t>
+          <t>23.7%</t>
         </is>
       </c>
       <c r="W12" s="10" t="inlineStr">
         <is>
-          <t>33.76%</t>
+          <t>33.06%</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="D13" s="11" t="inlineStr">
         <is>
-          <t>1.10%</t>
+          <t>1.09%</t>
         </is>
       </c>
       <c r="E13" s="11" t="inlineStr">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="F13" s="11" t="inlineStr">
         <is>
-          <t>2.07%</t>
+          <t>2.06%</t>
         </is>
       </c>
       <c r="G13" s="11" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="I13" s="11" t="inlineStr">
         <is>
-          <t>1.70%</t>
+          <t>1.69%</t>
         </is>
       </c>
       <c r="J13" s="11" t="inlineStr">
         <is>
-          <t>1.20%</t>
+          <t>1.19%</t>
         </is>
       </c>
       <c r="K13" s="11" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="O13" s="11" t="inlineStr">
         <is>
-          <t>2.10%</t>
+          <t>2.09%</t>
         </is>
       </c>
       <c r="P13" s="11" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="Q13" s="11" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.25%</t>
         </is>
       </c>
       <c r="R13" s="11" t="inlineStr">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="S13" s="11" t="inlineStr">
         <is>
-          <t>1.70%</t>
+          <t>1.69%</t>
         </is>
       </c>
       <c r="T13" s="11" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>1.22%</t>
         </is>
       </c>
       <c r="U13" s="11" t="inlineStr">
